--- a/data/trans_orig/PCS12_SP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Puntuación del componente de salud física (SF12)</t>
+          <t>Puntuación media del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>55,9</t>
+          <t>55,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,39</t>
+          <t>55,41</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>55,65</t>
+          <t>55,69</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,49; 56,27</t>
+          <t>55,49; 56,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,54; 56,0</t>
+          <t>54,64; 56,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,24; 56,0</t>
+          <t>55,31; 56,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>54,04</t>
+          <t>54,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,14; 54,67</t>
+          <t>53,12; 54,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,38; 55,28</t>
+          <t>54,39; 55,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,06; 54,89</t>
+          <t>54,03; 54,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53,82</t>
+          <t>53,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>53,06</t>
+          <t>53,03</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>53,43</t>
+          <t>53,42</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,28; 54,28</t>
+          <t>53,25; 54,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,48; 53,53</t>
+          <t>52,45; 53,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,04; 53,78</t>
+          <t>53,02; 53,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,54</t>
+          <t>50,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,17</t>
+          <t>51,35</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,36</t>
+          <t>51,1</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,71; 52,24</t>
+          <t>49,54; 52,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,56; 51,77</t>
+          <t>50,78; 52,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,85; 51,79</t>
+          <t>50,11; 51,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>49,21</t>
+          <t>49,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>48,33</t>
+          <t>48,31</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>48,77</t>
+          <t>48,74</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,39; 50,02</t>
+          <t>48,33; 49,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,63; 49,01</t>
+          <t>47,61; 48,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,23; 49,29</t>
+          <t>48,21; 49,24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,65</t>
+          <t>48,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>43,82</t>
+          <t>46,94</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>46,08</t>
+          <t>48,62</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>46,63</t>
+          <t>49,14</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,87</t>
+          <t>43,35</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,12</t>
+          <t>42,86</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,24</t>
+          <t>44,64</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>42,42</t>
+          <t>48,35</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>42,91</t>
+          <t>45,64</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>41,14</t>
+          <t>44,76</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>43,33</t>
+          <t>46,51</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>44,12</t>
+          <t>48,65</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,62; 46,53</t>
+          <t>47,32; 49,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,73; 44,87</t>
+          <t>45,48; 48,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,08; 46,95</t>
+          <t>47,43; 49,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,97; 47,3</t>
+          <t>48,31; 49,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,99; 41,67</t>
+          <t>42,14; 44,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,27; 40,03</t>
+          <t>41,58; 44,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,27; 42,25</t>
+          <t>43,49; 45,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,92; 45,96</t>
+          <t>45,63; 51,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,26; 43,56</t>
+          <t>44,81; 46,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>40,47; 41,81</t>
+          <t>43,77; 45,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>42,68; 43,94</t>
+          <t>45,61; 47,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>43,31; 46,12</t>
+          <t>47,28; 50,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>52,81</t>
+          <t>41,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>52,27</t>
+          <t>39,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>52,7</t>
+          <t>42,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>51,31</t>
+          <t>43,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>50,36</t>
+          <t>38,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>49,74</t>
+          <t>35,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>50,38</t>
+          <t>38,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>49,55</t>
+          <t>36,6</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>51,56</t>
+          <t>39,71</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>50,98</t>
+          <t>37,38</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>51,52</t>
+          <t>39,89</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>50,38</t>
+          <t>39,31</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>40,36; 43,49</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>38,11; 41,56</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>41,39; 44,14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>42,19; 44,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>37,14; 39,59</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>34,55; 36,89</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>36,64; 39,33</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>35,78; 37,44</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>38,75; 40,7</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>36,37; 38,43</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>38,88; 40,96</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>38,61; 40,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>52,81</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>52,27</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>52,7</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>51,24</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>50,36</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>49,74</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>50,38</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>49,8</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>51,56</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>50,98</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>51,52</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>50,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>52,55; 53,05</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>51,94; 52,58</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>52,4; 52,97</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>51,0; 51,59</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>50,64; 51,57</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>50,01; 50,66</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>49,41; 50,1</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>49,97; 50,76</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>49,21; 49,97</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>49,35; 50,5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>51,34; 51,77</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>50,73; 51,2</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>51,29; 51,78</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>50,17; 50,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>50,23; 50,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/PCS12_SP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Edad-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,23; 55,8</t>
+          <t>55,22; 55,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,14; 55,82</t>
+          <t>55,15; 55,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,76; 56,32</t>
+          <t>55,74; 56,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,49; 56,28</t>
+          <t>55,45; 56,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,7; 55,42</t>
+          <t>54,62; 55,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,56; 55,45</t>
+          <t>54,54; 55,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,4; 56,04</t>
+          <t>55,4; 56,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,64; 56,02</t>
+          <t>54,63; 55,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,05; 55,5</t>
+          <t>55,03; 55,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,0; 55,56</t>
+          <t>55,0; 55,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55,69; 56,13</t>
+          <t>55,68; 56,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,31; 56,01</t>
+          <t>55,27; 56,01</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,01; 55,64</t>
+          <t>54,97; 55,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,63; 55,38</t>
+          <t>54,65; 55,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,12; 55,89</t>
+          <t>55,15; 55,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,12; 54,67</t>
+          <t>53,13; 54,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,81; 54,68</t>
+          <t>53,84; 54,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,46; 55,22</t>
+          <t>54,43; 55,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>54,36; 55,35</t>
+          <t>54,31; 55,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,39; 55,27</t>
+          <t>54,41; 55,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,58; 55,13</t>
+          <t>54,57; 55,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,68; 55,19</t>
+          <t>54,66; 55,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,88; 55,53</t>
+          <t>54,89; 55,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,03; 54,88</t>
+          <t>54,01; 54,87</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,17; 54,92</t>
+          <t>54,18; 54,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,76; 54,72</t>
+          <t>53,87; 54,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,49; 55,3</t>
+          <t>54,5; 55,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,25; 54,26</t>
+          <t>53,25; 54,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,7; 53,66</t>
+          <t>52,65; 53,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,63; 53,68</t>
+          <t>52,61; 53,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,58; 54,48</t>
+          <t>53,58; 54,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,45; 53,49</t>
+          <t>52,46; 53,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,52; 54,18</t>
+          <t>53,54; 54,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,35; 54,05</t>
+          <t>53,32; 54,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,15; 54,81</t>
+          <t>54,17; 54,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,02; 53,77</t>
+          <t>53,03; 53,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,88; 53,92</t>
+          <t>52,8; 53,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,69; 53,83</t>
+          <t>52,68; 53,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,07; 53,37</t>
+          <t>52,0; 53,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,54; 52,04</t>
+          <t>49,53; 52,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,52; 51,9</t>
+          <t>50,39; 51,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,83; 52,33</t>
+          <t>50,89; 52,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,33; 52,76</t>
+          <t>51,26; 52,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,78; 52,26</t>
+          <t>50,72; 52,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,86; 52,75</t>
+          <t>51,87; 52,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,99; 52,89</t>
+          <t>52,03; 52,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,9; 52,91</t>
+          <t>51,91; 52,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,11; 51,77</t>
+          <t>50,06; 51,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,14; 50,84</t>
+          <t>49,17; 50,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,62; 51,38</t>
+          <t>49,67; 51,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,28; 52,01</t>
+          <t>50,19; 51,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,33; 49,93</t>
+          <t>48,32; 49,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,9; 49,79</t>
+          <t>47,78; 49,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,24; 48,13</t>
+          <t>46,23; 48,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,2; 49,11</t>
+          <t>47,13; 49,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,61; 48,99</t>
+          <t>47,59; 48,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,67; 49,97</t>
+          <t>48,69; 50,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,12; 49,5</t>
+          <t>48,15; 49,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>48,94; 50,31</t>
+          <t>48,94; 50,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,21; 49,24</t>
+          <t>48,19; 49,27</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>47,32; 49,33</t>
+          <t>47,15; 49,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,48; 48,11</t>
+          <t>45,32; 48,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,43; 49,64</t>
+          <t>47,43; 49,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>48,31; 49,92</t>
+          <t>48,3; 49,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,14; 44,41</t>
+          <t>42,19; 44,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,58; 44,07</t>
+          <t>41,55; 44,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,49; 45,87</t>
+          <t>43,45; 45,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,63; 51,41</t>
+          <t>45,62; 51,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,81; 46,36</t>
+          <t>44,86; 46,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>43,77; 45,64</t>
+          <t>43,88; 45,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>45,61; 47,26</t>
+          <t>45,68; 47,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>47,28; 50,8</t>
+          <t>47,28; 50,62</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,36; 43,49</t>
+          <t>40,37; 43,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,11; 41,56</t>
+          <t>38,29; 41,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>41,39; 44,14</t>
+          <t>41,39; 44,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>42,19; 44,36</t>
+          <t>42,12; 44,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,14; 39,59</t>
+          <t>37,06; 39,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,55; 36,89</t>
+          <t>34,51; 36,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,64; 39,33</t>
+          <t>36,57; 39,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,78; 37,44</t>
+          <t>35,76; 37,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>38,75; 40,7</t>
+          <t>38,77; 40,82</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>36,37; 38,43</t>
+          <t>36,34; 38,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>38,88; 40,96</t>
+          <t>38,87; 40,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>38,61; 40,01</t>
+          <t>38,65; 39,97</t>
         </is>
       </c>
     </row>
@@ -1704,52 +1704,52 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,05</t>
+          <t>52,55; 53,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>51,94; 52,58</t>
+          <t>51,95; 52,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>52,4; 52,97</t>
+          <t>52,42; 52,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>50,64; 51,57</t>
+          <t>50,7; 51,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,01; 50,66</t>
+          <t>50,02; 50,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,41; 50,1</t>
+          <t>49,42; 50,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>49,97; 50,76</t>
+          <t>50,01; 50,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,35; 50,5</t>
+          <t>49,33; 50,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,77</t>
+          <t>51,33; 51,77</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>50,73; 51,2</t>
+          <t>50,74; 51,23</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>50,23; 50,81</t>
+          <t>50,23; 50,84</t>
         </is>
       </c>
     </row>
